--- a/templates/AutomationOrg/CRUD-Inventory Commodity Code.xlsx
+++ b/templates/AutomationOrg/CRUD-Inventory Commodity Code.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkakade\Provar\Workspace\System Setup\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98FEE9D2-4161-4FD1-AA1A-1DC6812A808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71521917-C95E-4CD3-AA6B-3043AD2C8883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="3336" windowWidth="15912" windowHeight="8964" activeTab="1" xr2:uid="{4145BE24-13EA-41B9-AD4A-543DF1ABB31C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4145BE24-13EA-41B9-AD4A-543DF1ABB31C}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_Inventory ComCod" sheetId="1" r:id="rId1"/>
     <sheet name="Edit_Inventory ComCod" sheetId="2" r:id="rId2"/>
+    <sheet name="Clone_Inventory ComCod" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
   <si>
     <t>Commodity Code</t>
   </si>
@@ -141,6 +142,18 @@
   </si>
   <si>
     <t>Phantom CC - Update</t>
+  </si>
+  <si>
+    <t>PK_MfgCC_Cloned</t>
+  </si>
+  <si>
+    <t>PK_PurCC_Cloned</t>
+  </si>
+  <si>
+    <t>PK_SubcCC_Cloned</t>
+  </si>
+  <si>
+    <t>PK_PhantomCC_Cloned</t>
   </si>
 </sst>
 </file>
@@ -500,8 +513,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -703,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F504A-3766-4248-891D-1E066992B98D}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,4 +923,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABB60AD-0A72-419D-9CB9-7DE17BB24C3B}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>